--- a/biology/Zoologie/Gekkota/Gekkota.xlsx
+++ b/biology/Zoologie/Gekkota/Gekkota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gekkota, Gekkototiens, Gekkotiens ou geckos ([ʒeko], « jé-ko »), forment un infra-ordre de reptiles dont on rencontre les espèces dans de très nombreux pays.
 Ce nom provient du malais « Gekoq », qui est une onomatopée correspondant au cri d'un gecko indonésien (Écouter).
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vernaculaire Gecko, ainsi que celui de la famille Gekkonidae, proviennent du malais « Gekoq », qui est une onomatopée correspondant au cri d'un gecko indonésien.
 Attention à ne pas confondre gecko désignant tout l'infra-ordre des Gekkota et le genre de gecko Gekko, qui lui-même contient une espèce Gekko gecko (le Gecko tokay).
@@ -547,9 +561,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Reptarium Reptile Database (13 avril 2012)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Reptarium Reptile Database (13 avril 2012) :
 Carphodactylidae Kluge, 1987
 Diplodactylidae Underwood, 1954
 Eublepharidae Boulenger, 1883
@@ -592,7 +608,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les geckos ont longtemps été regroupés dans une famille unique, les Gekkonidae. Les autres familles actuelles étaient soit inexistantes soit considérées comme des sous-familles des Gekkonidae.
 </t>
@@ -623,9 +641,11 @@
           <t>Phylogénie au sein des squamates</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des familles actuelles de squamates (en dehors du clade Toxicofera) d'après Wiens et al., 2012[2] et Zeng et Wiens, 2016[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des familles actuelles de squamates (en dehors du clade Toxicofera) d'après Wiens et al., 2012 et Zeng et Wiens, 2016 :
 </t>
         </is>
       </c>
@@ -654,9 +674,11 @@
           <t>Histoire, origines</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'infra-ordre des Gekkota remonte à 50 ou 60 millions d'années[4] et descendrait des ardéosaures du Jurassique[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'infra-ordre des Gekkota remonte à 50 ou 60 millions d'années et descendrait des ardéosaures du Jurassique.
 Initialement originaires d'Asie (où l'on trouve le plus primitif des membres de cette famille encore en vie, le Aeluroscalabotes felinus ou gecko chat), les geckos se sont répandus à travers tout le globe en colonisant un grand nombre de biotopes. 
 On les rencontre maintenant dans à peu près tous les pays et sous tous les climats, à part les régions polaires et au nord des régions tempérées.
 </t>
@@ -687,15 +709,11 @@
           <t>Milieu, mode de vie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les geckos ont colonisé de nombreux biotopes et se sont adaptés (en tant que famille) à des conditions de vie très variées. L'espérance de vie d'un gecko est en moyenne de treize à quinze ans mais peut aller jusqu'à vingt ans ou descendre jusqu'à trois ou quatre ans pour certaines petites espèces.
-Milieu
-La plus grande part des geckos se rencontrent dans les pays tempérés ou chauds, fréquemment dans des milieux humides (forêts primaires, forêts tropicales humides). On en trouve également dans des milieux semi-arides (pourtour de la Méditerranée, par exemple), ainsi que dans les déserts.
-Modes de vie
-Les geckos sont majoritairement nocturnes et arboricoles. Cependant, certains sont diurnes, terrestres ou semi-aquatiques. De nombreux geckos cumulent plusieurs modes de vie (terrestre et arboricole, nocturne avec une activité le matin ou le soir, voire ponctuellement en journée).
-Les yeux des geckos nocturnes présentent une pupille à fente verticale, similaire à celle des chats, et les diurnes présentent une pupille ronde.
-Parmi les arboricoles, de nombreux geckos disposent de setæ sous les pattes, des coussinets adhérents leur permettant de grimper sur la plupart des surfaces, même verticales (voire de tenir à l'envers).
 </t>
         </is>
       </c>
@@ -721,14 +739,92 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Milieu, mode de vie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Milieu</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus grande part des geckos se rencontrent dans les pays tempérés ou chauds, fréquemment dans des milieux humides (forêts primaires, forêts tropicales humides). On en trouve également dans des milieux semi-arides (pourtour de la Méditerranée, par exemple), ainsi que dans les déserts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gekkota</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gekkota</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Milieu, mode de vie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Modes de vie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les geckos sont majoritairement nocturnes et arboricoles. Cependant, certains sont diurnes, terrestres ou semi-aquatiques. De nombreux geckos cumulent plusieurs modes de vie (terrestre et arboricole, nocturne avec une activité le matin ou le soir, voire ponctuellement en journée).
+Les yeux des geckos nocturnes présentent une pupille à fente verticale, similaire à celle des chats, et les diurnes présentent une pupille ronde.
+Parmi les arboricoles, de nombreux geckos disposent de setæ sous les pattes, des coussinets adhérents leur permettant de grimper sur la plupart des surfaces, même verticales (voire de tenir à l'envers).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gekkota</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gekkota</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Particularités anatomiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Les geckos sont des squamates, c'est-à-dire que ce sont des reptiles qui muent à intervalle régulier. Comme les autres reptiles, les geckos sont poïkilothermes, c'est-à-dire que leur température corporelle varie en fonction des conditions extérieures. Ils mettent en œuvre divers comportements pour réguler cette température en fonction de leurs besoins, par exemple en s'exposant au soleil pour se réchauffer. Par rapport aux autres reptiles, ils présentent quelques spécificités :
 la grande majorité des geckos ne possèdent pas de paupière mobile. Les yeux sont protégés par une écaille transparente (comme chez les serpents) ;
-la plupart des geckos arboricoles présentent des lamelles adhésives sous les doigts, qui leur permettent de grimper sur toutes les surfaces, y compris les plus lisses. Ils peuvent ainsi marcher sur un plafond sans problème. Les forces d'adhérence de leurs setæ sont si grandes qu'un seul doigt peut soutenir le poids complet de l'animal (sauf chez les plus grosses espèces). Elles sont dues uniquement aux forces de van der Waals entre les sétules (minuscules poils du bout des pattes) et la structure sur laquelle le gecko marche[6]. Voir aussi l'article Seta ;
+la plupart des geckos arboricoles présentent des lamelles adhésives sous les doigts, qui leur permettent de grimper sur toutes les surfaces, y compris les plus lisses. Ils peuvent ainsi marcher sur un plafond sans problème. Les forces d'adhérence de leurs setæ sont si grandes qu'un seul doigt peut soutenir le poids complet de l'animal (sauf chez les plus grosses espèces). Elles sont dues uniquement aux forces de van der Waals entre les sétules (minuscules poils du bout des pattes) et la structure sur laquelle le gecko marche. Voir aussi l'article Seta ;
 d'autres comme les Rhacodactylus ciliatus présentent aussi ces particularités sur leur queue en plus de leurs doigts ;
 de nombreuses espèces peuvent émettre des sons, en général des claquements ou de courts cris puissants (exemples : le Gekko gecko appelé aussi gecko tokay, le Cyrtodactylus peguensis, le Stenodactylus petrii et Hemidactylus frenatus chez les mâles) ;
 de façon corollaire, ils possèdent une très bonne ouïe, supérieure à celle de la plupart des autres lézards ;
@@ -738,31 +834,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Gekkota</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gekkota</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gekkota</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gekkota</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Les geckos mâles sont pourvus d'hémipénis, c'est-à-dire de deux pénis semi-rigides logés à la base de la queue. Ils utilisent l'un de ces hémipénis pour féconder la femelle. L'accouplement peut durer de quelques minutes à quelques heures, mais la moyenne se situe plutôt autour d'un quart d'heure.
 Chez de nombreuses espèces, le mâle immobilise la femelle durant l'accouplement, généralement en la mordant au niveau de la nuque – ce qui peut parfois entraîner des blessures chez les espèces ayant une peau fragile comme les Phelsuma.
@@ -777,31 +875,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Gekkota</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gekkota</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gekkota</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gekkota</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Législation</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux geckos (notamment Reichoffen) sont très inféodés à leur milieu d'origine et sont de ce fait souvent menacés par la destruction de leur environnement (d'autant plus pour les espèces endémiques, qu'on ne trouve qu'à un seul endroit du globe).
 C'est pourquoi nombre d'entre eux sont protégés au moins partiellement et leur possession est soit interdite soit soumise à des restrictions (permis de possession, quotas d'exportations, individus nés en captivité uniquement...).
@@ -811,69 +911,6 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Gekkota</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gekkota</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Menaces</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La médecine chinoise utilise la peau de lézard comme remède à la toux, à l'asthme, aux infections des reins... Les geckos sont donc parfois chassés de manière intensive ; dans les années 2000, dans le nord-est de la Thaïlande en Isan, la chasse était devenu tellement industrielle qu'elle menaçait d'extinction les geckos de cette région[7]...
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Gekkota</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gekkota</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Bio-inspiration</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour répondre à certains besoins industriels et de l'exploration spatiale, on cherche à développer des systèmes d'adhérence sèche qui pourraient équiper des machines ou des robots, notamment dans le vide sidéral où la ventouse ne fonctionne pas et où les adhésifs chimiques collants se montrent également peu efficaces[8].
-Des moyens de saisie ou d'accrochage bioinspirés par les surfaces d’« adhérence sèche » des doigts des geckos ont été mises au point et testées avec succès en 2017[8] ; ils sont basés sur de microscopiques filaments de silicium. Ces nouvelles pseudo-ventouses fonctionnent aussi sur terre, restant par exemple collées au mur durant plusieurs semaines de tests. De futurs robots pourraient en être équipés pour effectuer des sorties ou réparations sur un engin spatial[9]. Par ce moyen, ils pourraient aussi un jour capturer des débris spatiaux encombrant dangereusement l'orbite terrestre[9].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
@@ -895,10 +932,79 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>Menaces</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La médecine chinoise utilise la peau de lézard comme remède à la toux, à l'asthme, aux infections des reins... Les geckos sont donc parfois chassés de manière intensive ; dans les années 2000, dans le nord-est de la Thaïlande en Isan, la chasse était devenu tellement industrielle qu'elle menaçait d'extinction les geckos de cette région...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gekkota</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gekkota</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Bio-inspiration</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour répondre à certains besoins industriels et de l'exploration spatiale, on cherche à développer des systèmes d'adhérence sèche qui pourraient équiper des machines ou des robots, notamment dans le vide sidéral où la ventouse ne fonctionne pas et où les adhésifs chimiques collants se montrent également peu efficaces.
+Des moyens de saisie ou d'accrochage bioinspirés par les surfaces d’« adhérence sèche » des doigts des geckos ont été mises au point et testées avec succès en 2017 ; ils sont basés sur de microscopiques filaments de silicium. Ces nouvelles pseudo-ventouses fonctionnent aussi sur terre, restant par exemple collées au mur durant plusieurs semaines de tests. De futurs robots pourraient en être équipés pour effectuer des sorties ou réparations sur un engin spatial. Par ce moyen, ils pourraient aussi un jour capturer des débris spatiaux encombrant dangereusement l'orbite terrestre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Gekkota</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gekkota</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Quelques geckos connus</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains geckos sont fréquents dans des pays francophones ou sont répandus en terrariophilie et peuvent se trouver relativement facilement dans les commerces spécialisés :
 le Gecko tokay, gecko d'assez grande taille que l'on trouve principalement au sud de l'Asie ;
